--- a/achievements.xlsx
+++ b/achievements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23480" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Achivment</t>
   </si>
@@ -88,6 +88,33 @@
   </si>
   <si>
     <t>total points</t>
+  </si>
+  <si>
+    <t>Get Power Up #1 10 times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Power Up #1 50 times </t>
+  </si>
+  <si>
+    <t>Get Power Up #1 100 times</t>
+  </si>
+  <si>
+    <t>Get Power Up #2 10 times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Power Up #2 50 times </t>
+  </si>
+  <si>
+    <t>Get Power Up #2 100 times</t>
+  </si>
+  <si>
+    <t>Get Power Up #3 10 times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Power Up #3 50 times </t>
+  </si>
+  <si>
+    <t>Get Power Up #3 100 times</t>
   </si>
 </sst>
 </file>
@@ -144,8 +171,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -153,9 +184,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -489,7 +524,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -639,6 +674,51 @@
         <v>21</v>
       </c>
     </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>22</v>

--- a/achievements.xlsx
+++ b/achievements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Achivment</t>
   </si>
@@ -88,33 +88,6 @@
   </si>
   <si>
     <t>total points</t>
-  </si>
-  <si>
-    <t>Get Power Up #1 10 times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Power Up #1 50 times </t>
-  </si>
-  <si>
-    <t>Get Power Up #1 100 times</t>
-  </si>
-  <si>
-    <t>Get Power Up #2 10 times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Power Up #2 50 times </t>
-  </si>
-  <si>
-    <t>Get Power Up #2 100 times</t>
-  </si>
-  <si>
-    <t>Get Power Up #3 10 times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Power Up #3 50 times </t>
-  </si>
-  <si>
-    <t>Get Power Up #3 100 times</t>
   </si>
 </sst>
 </file>
@@ -171,12 +144,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -184,13 +153,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -524,7 +489,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -674,51 +639,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>22</v>

--- a/achievements.xlsx
+++ b/achievements.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Achivment</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>Get Power Up #3 100 times</t>
+  </si>
+  <si>
+    <t>Get Power Up #4 10 times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Power Up #4 50 times </t>
+  </si>
+  <si>
+    <t>Get Power Up #4 100 times</t>
   </si>
 </sst>
 </file>
@@ -171,8 +180,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -184,13 +197,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -524,7 +541,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -633,90 +650,168 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>31</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -725,7 +820,7 @@
       </c>
       <c r="B40">
         <f>SUM(B2:B39)</f>
-        <v>210</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>

--- a/achievements.xlsx
+++ b/achievements.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,23 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Achivment</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
   <si>
     <t>Points Awarded</t>
   </si>
   <si>
-    <t>Play 10 times</t>
-  </si>
-  <si>
-    <t>Play 20 times</t>
-  </si>
-  <si>
-    <t>Play 50 times</t>
-  </si>
-  <si>
     <t>Play 100 times</t>
   </si>
   <si>
@@ -45,33 +33,12 @@
     <t>Play 1,000 times</t>
   </si>
   <si>
-    <t>Reach 100,000 score</t>
-  </si>
-  <si>
-    <t>Reach 10,000 score</t>
-  </si>
-  <si>
-    <t>Reach 1,000 score</t>
-  </si>
-  <si>
-    <t>Reach 500 score</t>
-  </si>
-  <si>
-    <t>Reach 100 score</t>
-  </si>
-  <si>
-    <t>Get caught 10 times within 30 seconds of play</t>
-  </si>
-  <si>
     <t>Get caught 5 times after 4 minutes of play</t>
   </si>
   <si>
     <t>Get caught 50 times within 30 seconds of play</t>
   </si>
   <si>
-    <t>Get caught 100 times within 30 seconds of play</t>
-  </si>
-  <si>
     <t>Get caught 10 times after 4 minutes of play</t>
   </si>
   <si>
@@ -90,40 +57,211 @@
     <t>total points</t>
   </si>
   <si>
-    <t>Get Power Up #1 10 times</t>
-  </si>
-  <si>
     <t xml:space="preserve">Get Power Up #1 50 times </t>
   </si>
   <si>
     <t>Get Power Up #1 100 times</t>
   </si>
   <si>
-    <t>Get Power Up #2 10 times</t>
-  </si>
-  <si>
     <t xml:space="preserve">Get Power Up #2 50 times </t>
   </si>
   <si>
     <t>Get Power Up #2 100 times</t>
   </si>
   <si>
-    <t>Get Power Up #3 10 times</t>
-  </si>
-  <si>
     <t xml:space="preserve">Get Power Up #3 50 times </t>
   </si>
   <si>
     <t>Get Power Up #3 100 times</t>
   </si>
   <si>
-    <t>Get Power Up #4 10 times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Power Up #4 50 times </t>
-  </si>
-  <si>
-    <t>Get Power Up #4 100 times</t>
+    <t>Reach 100 Distance</t>
+  </si>
+  <si>
+    <t>Reach 500 Distance</t>
+  </si>
+  <si>
+    <t>Reach 1,000 Distance</t>
+  </si>
+  <si>
+    <t>Reach 10,000 Distance</t>
+  </si>
+  <si>
+    <t>Reach 100,000 Distance</t>
+  </si>
+  <si>
+    <t>Marathon</t>
+  </si>
+  <si>
+    <t>Achievement ID</t>
+  </si>
+  <si>
+    <t>Hidden (Y/N)</t>
+  </si>
+  <si>
+    <t>Achievable More Than Once (Y/N)</t>
+  </si>
+  <si>
+    <t>Pre-earned Description</t>
+  </si>
+  <si>
+    <t>Earned Description</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Run a total of 50 km</t>
+  </si>
+  <si>
+    <t>Plutophobia</t>
+  </si>
+  <si>
+    <t>Run 1000m without collecting any coins</t>
+  </si>
+  <si>
+    <t>Run for 100 meters without getting caught</t>
+  </si>
+  <si>
+    <t>Run for 500 meters without getting caught</t>
+  </si>
+  <si>
+    <t>Run for 10,000 meters without getting caught</t>
+  </si>
+  <si>
+    <t>Run for 1,000 meters without getting caught</t>
+  </si>
+  <si>
+    <t>Run for 100,000 meters without getting caught</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Run into same obstacle 3 times in same game</t>
+  </si>
+  <si>
+    <t>Run into same obstacle 5 times in same game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoid obstacle #1  100 times </t>
+  </si>
+  <si>
+    <t>Avoid obstacle #1 500 times</t>
+  </si>
+  <si>
+    <t>Die after collecting exactly 42 coins</t>
+  </si>
+  <si>
+    <t>Die after collecting exactly 365 coins</t>
+  </si>
+  <si>
+    <t>Danger Magnet 2.0</t>
+  </si>
+  <si>
+    <t>Danger Magnet</t>
+  </si>
+  <si>
+    <t>Collect 500 Coins in a single game</t>
+  </si>
+  <si>
+    <t>Collect 1,000 Coins in a single game</t>
+  </si>
+  <si>
+    <t>Collect 10,000 Coins in a single game</t>
+  </si>
+  <si>
+    <t>Copper Master</t>
+  </si>
+  <si>
+    <t>Silver Master</t>
+  </si>
+  <si>
+    <t>Gold Master</t>
+  </si>
+  <si>
+    <t>play100</t>
+  </si>
+  <si>
+    <t>play500</t>
+  </si>
+  <si>
+    <t>play1000</t>
+  </si>
+  <si>
+    <t>run100</t>
+  </si>
+  <si>
+    <t>run500</t>
+  </si>
+  <si>
+    <t>run1000</t>
+  </si>
+  <si>
+    <t>run10000</t>
+  </si>
+  <si>
+    <t>run100000</t>
+  </si>
+  <si>
+    <t>Book Dodger</t>
+  </si>
+  <si>
+    <t>Master Book Dodger</t>
+  </si>
+  <si>
+    <t>Answer to the Universe, Life and Everything</t>
+  </si>
+  <si>
+    <t>Golden</t>
+  </si>
+  <si>
+    <t>Run the total distance of the Golden Ratio 161,803,398</t>
+  </si>
+  <si>
+    <t>golden</t>
+  </si>
+  <si>
+    <t>caught50fast</t>
+  </si>
+  <si>
+    <t>caught10slow</t>
+  </si>
+  <si>
+    <t>caught5slow</t>
+  </si>
+  <si>
+    <t>caught50slow</t>
+  </si>
+  <si>
+    <t>power10</t>
+  </si>
+  <si>
+    <t>power50</t>
+  </si>
+  <si>
+    <t>power100</t>
+  </si>
+  <si>
+    <t>365coins</t>
+  </si>
+  <si>
+    <t>42coins</t>
+  </si>
+  <si>
+    <t>coin500</t>
+  </si>
+  <si>
+    <t>coin1000</t>
+  </si>
+  <si>
+    <t>coin10000</t>
+  </si>
+  <si>
+    <t>marathon</t>
   </si>
 </sst>
 </file>
@@ -180,7 +318,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -192,22 +330,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -537,290 +708,543 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="72.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="3" max="3" width="53.33203125" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>365</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <f>SUM(A2:A34)</f>
+        <v>840</v>
+      </c>
+      <c r="B36" t="s">
         <v>11</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40">
-        <f>SUM(B2:B39)</f>
-        <v>630</v>
       </c>
     </row>
   </sheetData>

--- a/achievements.xlsx
+++ b/achievements.xlsx
@@ -347,10 +347,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -712,13 +715,13 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" customWidth="1"/>
     <col min="3" max="3" width="53.33203125" customWidth="1"/>
     <col min="4" max="4" width="32.1640625" customWidth="1"/>
     <col min="5" max="5" width="21.5" customWidth="1"/>
@@ -1208,7 +1211,7 @@
       <c r="A33">
         <v>20</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>365</v>
       </c>
       <c r="C33" t="s">

--- a/achievements.xlsx
+++ b/achievements.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23480" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="89">
   <si>
     <t>Points Awarded</t>
   </si>
@@ -262,6 +262,30 @@
   </si>
   <si>
     <t>marathon</t>
+  </si>
+  <si>
+    <t>Growing Potential</t>
+  </si>
+  <si>
+    <t>In iTunes Connect</t>
+  </si>
+  <si>
+    <t>Centurion</t>
+  </si>
+  <si>
+    <t>danger3</t>
+  </si>
+  <si>
+    <t>danger5</t>
+  </si>
+  <si>
+    <t>plutophobia</t>
+  </si>
+  <si>
+    <t>book100</t>
+  </si>
+  <si>
+    <t>book500</t>
   </si>
 </sst>
 </file>
@@ -318,8 +342,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -355,7 +383,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -369,6 +397,8 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -382,6 +412,8 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -711,542 +743,663 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="38.1640625" customWidth="1"/>
-    <col min="3" max="3" width="53.33203125" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="38.1640625" customWidth="1"/>
+    <col min="4" max="4" width="53.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
+    <row r="2" spans="1:8">
+      <c r="B2">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>54</v>
       </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3">
         <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
         <v>55</v>
       </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4">
         <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
         <v>56</v>
       </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>57</v>
       </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>58</v>
       </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>59</v>
       </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8">
         <v>40</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>60</v>
       </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9">
         <v>50</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>61</v>
       </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10">
         <v>30</v>
       </c>
       <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>68</v>
       </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>4</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>70</v>
       </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>6</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>69</v>
       </c>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>71</v>
       </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>72</v>
       </c>
-      <c r="F14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>9</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>73</v>
       </c>
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16">
         <v>30</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>10</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>74</v>
       </c>
-      <c r="F16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="F17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18">
         <v>30</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19">
         <v>20</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>14</v>
       </c>
-      <c r="F19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
+      <c r="G19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20">
         <v>30</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="F20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>16</v>
       </c>
-      <c r="F21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22">
         <v>30</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>17</v>
       </c>
-      <c r="F22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
+      <c r="G22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>62</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
+        <v>87</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24">
         <v>30</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>63</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
+        <v>88</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25">
         <v>30</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>51</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>48</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>77</v>
       </c>
-      <c r="F25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26">
         <v>40</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>52</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>49</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>78</v>
       </c>
-      <c r="F26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27">
         <v>50</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>53</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>50</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>79</v>
       </c>
-      <c r="F27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
+      <c r="G27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28">
         <v>20</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>23</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>30</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>80</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
+      <c r="H28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31">
         <v>20</v>
       </c>
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>10</v>
-      </c>
-      <c r="B30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
+      <c r="H32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33">
         <v>20</v>
       </c>
-      <c r="B31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>20</v>
-      </c>
-      <c r="B32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="C33" s="3">
+        <v>365</v>
+      </c>
+      <c r="D33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>20</v>
-      </c>
-      <c r="B33" s="3">
-        <v>365</v>
-      </c>
-      <c r="C33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>40</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="H33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>67</v>
       </c>
-      <c r="F34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <f>SUM(A2:A34)</f>
-        <v>840</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36">
+        <f>SUM(B2:B34)</f>
+        <v>880</v>
+      </c>
+      <c r="C36" t="s">
         <v>11</v>
       </c>
     </row>

--- a/achievements.xlsx
+++ b/achievements.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="109">
   <si>
     <t>Points Awarded</t>
   </si>
@@ -39,57 +39,12 @@
     <t>Get caught 50 times within 30 seconds of play</t>
   </si>
   <si>
-    <t>Get caught 10 times after 4 minutes of play</t>
-  </si>
-  <si>
     <t>Get caught 50 times after 4 minutes of play</t>
   </si>
   <si>
-    <t>Get Power Up 10 times (for all power ups)</t>
-  </si>
-  <si>
-    <t>Get Power Up 50 times (for all power ups)</t>
-  </si>
-  <si>
-    <t>Get Power Up 100 times (for all power ups)</t>
-  </si>
-  <si>
     <t>total points</t>
   </si>
   <si>
-    <t xml:space="preserve">Get Power Up #1 50 times </t>
-  </si>
-  <si>
-    <t>Get Power Up #1 100 times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Power Up #2 50 times </t>
-  </si>
-  <si>
-    <t>Get Power Up #2 100 times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Power Up #3 50 times </t>
-  </si>
-  <si>
-    <t>Get Power Up #3 100 times</t>
-  </si>
-  <si>
-    <t>Reach 100 Distance</t>
-  </si>
-  <si>
-    <t>Reach 500 Distance</t>
-  </si>
-  <si>
-    <t>Reach 1,000 Distance</t>
-  </si>
-  <si>
-    <t>Reach 10,000 Distance</t>
-  </si>
-  <si>
-    <t>Reach 100,000 Distance</t>
-  </si>
-  <si>
     <t>Marathon</t>
   </si>
   <si>
@@ -111,9 +66,6 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Run a total of 50 km</t>
-  </si>
-  <si>
     <t>Plutophobia</t>
   </si>
   <si>
@@ -147,12 +99,6 @@
     <t>Run into same obstacle 5 times in same game</t>
   </si>
   <si>
-    <t xml:space="preserve">Avoid obstacle #1  100 times </t>
-  </si>
-  <si>
-    <t>Avoid obstacle #1 500 times</t>
-  </si>
-  <si>
     <t>Die after collecting exactly 42 coins</t>
   </si>
   <si>
@@ -165,15 +111,6 @@
     <t>Danger Magnet</t>
   </si>
   <si>
-    <t>Collect 500 Coins in a single game</t>
-  </si>
-  <si>
-    <t>Collect 1,000 Coins in a single game</t>
-  </si>
-  <si>
-    <t>Collect 10,000 Coins in a single game</t>
-  </si>
-  <si>
     <t>Copper Master</t>
   </si>
   <si>
@@ -219,18 +156,12 @@
     <t>Golden</t>
   </si>
   <si>
-    <t>Run the total distance of the Golden Ratio 161,803,398</t>
-  </si>
-  <si>
     <t>golden</t>
   </si>
   <si>
     <t>caught50fast</t>
   </si>
   <si>
-    <t>caught10slow</t>
-  </si>
-  <si>
     <t>caught5slow</t>
   </si>
   <si>
@@ -286,13 +217,142 @@
   </si>
   <si>
     <t>book500</t>
+  </si>
+  <si>
+    <t>Millennium</t>
+  </si>
+  <si>
+    <t>You have played 100 times</t>
+  </si>
+  <si>
+    <t>You have played 500 times</t>
+  </si>
+  <si>
+    <t>You have playaed 1,000 times</t>
+  </si>
+  <si>
+    <t>Half a Millennium</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>5k</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>1000k</t>
+  </si>
+  <si>
+    <t>You have run 100 meters without getting caught</t>
+  </si>
+  <si>
+    <t>You have run 500 meters without getting caught</t>
+  </si>
+  <si>
+    <t>You have run 1000 meters without getting caught</t>
+  </si>
+  <si>
+    <t>You have run 10000 meters without getting caught</t>
+  </si>
+  <si>
+    <t>You have run 100000 meters without getting caught</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoid a flying book  100 times </t>
+  </si>
+  <si>
+    <t>Avoid a flying book 500 times</t>
+  </si>
+  <si>
+    <t>You have avoided 100 flying books</t>
+  </si>
+  <si>
+    <t>You have avoided 500 flying books</t>
+  </si>
+  <si>
+    <t>You have collected 500 coins in a single game</t>
+  </si>
+  <si>
+    <t>You have collected 1000 coins in a single game</t>
+  </si>
+  <si>
+    <t>You have collected 10000 coins in a single game</t>
+  </si>
+  <si>
+    <t>Collect 500 coins in a single game</t>
+  </si>
+  <si>
+    <t>Collect 1,000 coins in a single game</t>
+  </si>
+  <si>
+    <t>Collect 10,000 coins in a single game</t>
+  </si>
+  <si>
+    <t>You have ran a Marathon of 50 km</t>
+  </si>
+  <si>
+    <t>Run a total of 50 kilometers</t>
+  </si>
+  <si>
+    <t>You have run 1000 meters without collecting any coins</t>
+  </si>
+  <si>
+    <t>You have run into the same obstacke 5 times in the same game …Ouch</t>
+  </si>
+  <si>
+    <t>You have run into the same obstacle 3 times in the same game</t>
+  </si>
+  <si>
+    <t>You have found the answer to the Universe and collected exactly 42 coins</t>
+  </si>
+  <si>
+    <t>You have died after collecting exactly 365 coins</t>
+  </si>
+  <si>
+    <t>You have run long enough to reach the Golden: Ration 161,803,398 meters</t>
+  </si>
+  <si>
+    <t>Run the total distance of the Golden Ratio 161,803,398 meters</t>
+  </si>
+  <si>
+    <t>You have been caught 50 times within 30 seconds of play</t>
+  </si>
+  <si>
+    <t>You have been caught 5 times after 4 minutes of play</t>
+  </si>
+  <si>
+    <t>You have been caught 50 times after 50 minutes of play</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have used a power up 50 times </t>
+  </si>
+  <si>
+    <t>You have used a power up 100 times</t>
+  </si>
+  <si>
+    <t>You have used a power up 500 times</t>
+  </si>
+  <si>
+    <t>Use a power up 50 times</t>
+  </si>
+  <si>
+    <t>Use a power up 100 times</t>
+  </si>
+  <si>
+    <t>Use a power up 500 times</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -324,13 +384,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -342,7 +415,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -374,16 +447,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -399,6 +476,7 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -414,6 +492,7 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -743,49 +822,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="38.1640625" customWidth="1"/>
     <col min="4" max="4" width="53.33203125" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" customWidth="1"/>
+    <col min="5" max="5" width="65.33203125" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>82</v>
+      <c r="A1" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -793,19 +872,22 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -813,19 +895,22 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -833,19 +918,22 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -853,19 +941,22 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -873,19 +964,22 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -893,19 +987,22 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>36</v>
+      <c r="E7" t="s">
+        <v>78</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -913,19 +1010,22 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -933,19 +1033,22 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -953,285 +1056,375 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
+      <c r="E10" t="s">
+        <v>100</v>
+      </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1">
+      <c r="B11" s="4">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12">
+      <c r="E11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1">
+      <c r="B12" s="4">
         <v>20</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13">
+      <c r="E12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1">
+      <c r="B13" s="4">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1">
+      <c r="B14" s="4">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="4" customFormat="1">
+      <c r="B15" s="4">
         <v>30</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" t="s">
-        <v>38</v>
+      <c r="D15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="B16">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>81</v>
+      </c>
+      <c r="E16" t="s">
+        <v>83</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="B17">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s">
+        <v>65</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18">
         <v>30</v>
       </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>89</v>
+      </c>
+      <c r="E19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20">
-        <v>30</v>
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>90</v>
+      </c>
+      <c r="E20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21">
         <v>20</v>
       </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>92</v>
+      </c>
+      <c r="E21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" t="s">
+        <v>57</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22">
-        <v>30</v>
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" t="s">
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:8">
       <c r="B23">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>94</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H24" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>96</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26">
-        <v>40</v>
-      </c>
-      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3">
+        <v>365</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" t="s">
         <v>52</v>
       </c>
-      <c r="D26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>78</v>
-      </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="2:8">
@@ -1239,168 +1432,31 @@
         <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" t="s">
+        <v>98</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28">
-        <v>20</v>
-      </c>
-      <c r="C28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29">
-        <v>50</v>
+        <f>SUM(B2:B27)</f>
+        <v>700</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31">
-        <v>20</v>
-      </c>
-      <c r="C31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" t="s">
-        <v>85</v>
-      </c>
-      <c r="G31" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32">
-        <v>20</v>
-      </c>
-      <c r="C32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G32" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33">
-        <v>20</v>
-      </c>
-      <c r="C33" s="3">
-        <v>365</v>
-      </c>
-      <c r="D33" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" t="s">
-        <v>75</v>
-      </c>
-      <c r="G33" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34">
-        <v>50</v>
-      </c>
-      <c r="C34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36">
-        <f>SUM(B2:B34)</f>
-        <v>880</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/achievements.xlsx
+++ b/achievements.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="51140" windowHeight="25820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="105">
   <si>
     <t>Points Awarded</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Play 100 times</t>
   </si>
   <si>
-    <t>Play 500 times</t>
-  </si>
-  <si>
     <t>Play 1,000 times</t>
   </si>
   <si>
@@ -72,12 +69,6 @@
     <t>Run 1000m without collecting any coins</t>
   </si>
   <si>
-    <t>Run for 100 meters without getting caught</t>
-  </si>
-  <si>
-    <t>Run for 500 meters without getting caught</t>
-  </si>
-  <si>
     <t>Run for 10,000 meters without getting caught</t>
   </si>
   <si>
@@ -141,9 +132,6 @@
     <t>run10000</t>
   </si>
   <si>
-    <t>run100000</t>
-  </si>
-  <si>
     <t>Book Dodger</t>
   </si>
   <si>
@@ -225,9 +213,6 @@
     <t>You have played 100 times</t>
   </si>
   <si>
-    <t>You have played 500 times</t>
-  </si>
-  <si>
     <t>You have playaed 1,000 times</t>
   </si>
   <si>
@@ -246,24 +231,6 @@
     <t>100k</t>
   </si>
   <si>
-    <t>1000k</t>
-  </si>
-  <si>
-    <t>You have run 100 meters without getting caught</t>
-  </si>
-  <si>
-    <t>You have run 500 meters without getting caught</t>
-  </si>
-  <si>
-    <t>You have run 1000 meters without getting caught</t>
-  </si>
-  <si>
-    <t>You have run 10000 meters without getting caught</t>
-  </si>
-  <si>
-    <t>You have run 100000 meters without getting caught</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avoid a flying book  100 times </t>
   </si>
   <si>
@@ -346,13 +313,34 @@
   </si>
   <si>
     <t>Use a power up 500 times</t>
+  </si>
+  <si>
+    <t>Play 5000 times</t>
+  </si>
+  <si>
+    <t>You have played 5000 times</t>
+  </si>
+  <si>
+    <t>You have run 100,000 meters without getting caught</t>
+  </si>
+  <si>
+    <t>You have run 10,000 meters without getting caught</t>
+  </si>
+  <si>
+    <t>You have run 1,000 meters without getting caught</t>
+  </si>
+  <si>
+    <t>You have run 5,000 meters without getting caught</t>
+  </si>
+  <si>
+    <t>Run for 5,000 meters without getting caught</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -384,13 +372,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -415,7 +396,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -449,8 +430,182 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -458,9 +613,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="207">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -477,6 +631,93 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -493,6 +734,93 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -822,11 +1150,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -843,620 +1171,657 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
       <c r="B2">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
       <c r="B4">
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
       <c r="B5">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
       <c r="B6">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
       <c r="B7">
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
       <c r="B8">
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
       <c r="B9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>80</v>
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1">
+      <c r="B10" s="4">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1">
       <c r="B11" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="4" customFormat="1">
       <c r="B12" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1">
       <c r="B13" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1">
       <c r="B14" s="4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="4" customFormat="1">
-      <c r="B15" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
         <v>30</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16">
-        <v>20</v>
-      </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
       <c r="B17">
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
         <v>82</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
         <v>84</v>
       </c>
-      <c r="F17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
         <v>22</v>
       </c>
-      <c r="H17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25" s="3">
+        <v>365</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20">
-        <v>50</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="E26" t="s">
         <v>87</v>
       </c>
-      <c r="F20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22">
-        <v>50</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24">
-        <v>20</v>
-      </c>
-      <c r="C24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26">
-        <v>20</v>
-      </c>
-      <c r="C26" s="3">
-        <v>365</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" t="s">
-        <v>97</v>
-      </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27">
-        <v>50</v>
-      </c>
-      <c r="C27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29">
-        <f>SUM(B2:B27)</f>
-        <v>700</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28">
+        <f>SUM(B2:B26)</f>
+        <v>650</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
